--- a/2_semester/labs/lab_2_2_5/2_2_5.xlsx
+++ b/2_semester/labs/lab_2_2_5/2_2_5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mipt_dgap\2_semester\labs\lab_2_2_5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\mipt_dgap\2_semester\labs\lab_2_2_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DC090D4-0674-4001-919E-E36C8A849A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73155D21-6D19-4E79-AAA5-3BBF1FF774AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2028" windowWidth="17280" windowHeight="8964" xr2:uid="{AE4687B6-AF2D-437A-B311-B7DAD71C218A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AE4687B6-AF2D-437A-B311-B7DAD71C218A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="29">
   <si>
     <t>h1</t>
   </si>
@@ -88,12 +88,48 @@
   </si>
   <si>
     <t>t5</t>
+  </si>
+  <si>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>rho x</t>
+  </si>
+  <si>
+    <t>sigma eta</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>t,s</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>t_1</t>
+  </si>
+  <si>
+    <t>t_2</t>
+  </si>
+  <si>
+    <t>t_3</t>
+  </si>
+  <si>
+    <t>t_4</t>
+  </si>
+  <si>
+    <t>t_5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -209,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -222,6 +258,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,15 +574,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1DADE5-F083-4CBF-BD25-C1964D89B131}">
-  <dimension ref="A3:P32"/>
+  <dimension ref="A3:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -555,7 +596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -605,7 +646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
@@ -643,7 +684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
@@ -685,7 +726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
@@ -723,7 +764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="5">
         <v>10</v>
@@ -753,7 +794,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
@@ -767,7 +808,7 @@
       <c r="O10" s="5"/>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
@@ -809,7 +850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
@@ -847,7 +888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>10</v>
       </c>
@@ -889,7 +930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
@@ -917,8 +958,23 @@
       <c r="L16" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="Q16" t="s">
+        <v>21</v>
+      </c>
+      <c r="R16" t="s">
+        <v>22</v>
+      </c>
+      <c r="S16" t="s">
+        <v>23</v>
+      </c>
+      <c r="T16" t="s">
+        <v>10</v>
+      </c>
+      <c r="U16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>2</v>
       </c>
@@ -946,8 +1002,24 @@
       <c r="L17" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>610</v>
+      </c>
+      <c r="S17">
+        <v>20</v>
+      </c>
+      <c r="T17" s="12">
+        <f>S17/R17</f>
+        <v>3.2786885245901641E-2</v>
+      </c>
+      <c r="U17">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>3</v>
       </c>
@@ -978,8 +1050,24 @@
       <c r="L18" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="Q18">
+        <v>2</v>
+      </c>
+      <c r="R18">
+        <v>550</v>
+      </c>
+      <c r="S18">
+        <v>20</v>
+      </c>
+      <c r="T18" s="12">
+        <f t="shared" ref="T18:T23" si="0">S18/R18</f>
+        <v>3.6363636363636362E-2</v>
+      </c>
+      <c r="U18">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>5</v>
       </c>
@@ -1007,8 +1095,24 @@
       <c r="L19" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <v>410</v>
+      </c>
+      <c r="S19">
+        <v>10</v>
+      </c>
+      <c r="T19" s="12">
+        <f t="shared" si="0"/>
+        <v>2.4390243902439025E-2</v>
+      </c>
+      <c r="U19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="10">
         <v>25</v>
@@ -1030,8 +1134,24 @@
       <c r="L20" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="Q20">
+        <v>4</v>
+      </c>
+      <c r="R20">
+        <v>630</v>
+      </c>
+      <c r="S20">
+        <v>15</v>
+      </c>
+      <c r="T20" s="12">
+        <f t="shared" si="0"/>
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="U20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="6"/>
@@ -1041,8 +1161,24 @@
       <c r="J21" s="4"/>
       <c r="K21" s="5"/>
       <c r="L21" s="6"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="Q21">
+        <v>5</v>
+      </c>
+      <c r="R21">
+        <v>505</v>
+      </c>
+      <c r="S21">
+        <v>10</v>
+      </c>
+      <c r="T21" s="12">
+        <f t="shared" si="0"/>
+        <v>1.9801980198019802E-2</v>
+      </c>
+      <c r="U21">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>5</v>
       </c>
@@ -1073,8 +1209,24 @@
       <c r="L22" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="Q22">
+        <v>6</v>
+      </c>
+      <c r="R22">
+        <v>792</v>
+      </c>
+      <c r="S22">
+        <v>20</v>
+      </c>
+      <c r="T22" s="12">
+        <f t="shared" si="0"/>
+        <v>2.5252525252525252E-2</v>
+      </c>
+      <c r="U22">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>8</v>
       </c>
@@ -1102,8 +1254,24 @@
       <c r="L23" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="Q23">
+        <v>7</v>
+      </c>
+      <c r="R23">
+        <v>310</v>
+      </c>
+      <c r="S23">
+        <v>10</v>
+      </c>
+      <c r="T23" s="12">
+        <f t="shared" si="0"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="U23">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>10</v>
       </c>
@@ -1135,7 +1303,38 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="R25" s="11">
+        <v>0</v>
+      </c>
+      <c r="S25" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="T25" s="11">
+        <v>0.2</v>
+      </c>
+      <c r="U25" s="11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q26" t="s">
+        <v>24</v>
+      </c>
+      <c r="R26" s="13">
+        <v>8.69</v>
+      </c>
+      <c r="S26" s="13">
+        <v>11.68</v>
+      </c>
+      <c r="T26" s="13">
+        <v>17.03</v>
+      </c>
+      <c r="U26" s="13">
+        <v>20.97</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>12</v>
       </c>
@@ -1148,90 +1347,312 @@
       <c r="L27" s="11">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="Q27" t="s">
+        <v>25</v>
+      </c>
+      <c r="R27" s="13">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="S27" s="13">
+        <v>11.8</v>
+      </c>
+      <c r="T27" s="13">
+        <v>17.010000000000002</v>
+      </c>
+      <c r="U27" s="13">
+        <v>21.16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>13</v>
       </c>
       <c r="C28">
         <v>8.69</v>
       </c>
+      <c r="D28">
+        <f>(C28-C$33)^2</f>
+        <v>4.6239999999999476E-3</v>
+      </c>
       <c r="F28">
         <v>11.68</v>
       </c>
+      <c r="G28">
+        <f>(F28-F$33)^2</f>
+        <v>5.2900000000000197E-2</v>
+      </c>
       <c r="I28">
         <v>17.03</v>
       </c>
+      <c r="J28">
+        <f>(I28-I$33)^2</f>
+        <v>1.6900000000000664E-2</v>
+      </c>
       <c r="L28">
         <v>20.97</v>
       </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M28">
+        <f>(L28-L$33)^2</f>
+        <v>9.6039999999998002E-3</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>26</v>
+      </c>
+      <c r="R28" s="13">
+        <v>8.39</v>
+      </c>
+      <c r="S28" s="13">
+        <v>11.68</v>
+      </c>
+      <c r="T28" s="13">
+        <v>17.14</v>
+      </c>
+      <c r="U28" s="13">
+        <v>21.25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>14</v>
       </c>
       <c r="C29">
         <v>8.8000000000000007</v>
       </c>
+      <c r="D29">
+        <f t="shared" ref="D29:D32" si="1">(C29-C$33)^2</f>
+        <v>3.1684000000000295E-2</v>
+      </c>
       <c r="F29">
         <v>11.8</v>
       </c>
+      <c r="G29">
+        <f t="shared" ref="G29:G32" si="2">(F29-F$33)^2</f>
+        <v>1.2099999999999875E-2</v>
+      </c>
       <c r="I29">
         <v>17.010000000000002</v>
       </c>
+      <c r="J29">
+        <f t="shared" ref="J29:J32" si="3">(I29-I$33)^2</f>
+        <v>2.2500000000000641E-2</v>
+      </c>
       <c r="L29">
         <v>21.16</v>
       </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M29">
+        <f t="shared" ref="M29:M32" si="4">(L29-L$33)^2</f>
+        <v>8.4640000000004243E-3</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>27</v>
+      </c>
+      <c r="R29" s="13">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="S29" s="13">
+        <v>11.64</v>
+      </c>
+      <c r="T29" s="13">
+        <v>17.5</v>
+      </c>
+      <c r="U29" s="13">
+        <v>20.97</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>15</v>
       </c>
       <c r="C30">
         <v>8.39</v>
       </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>5.3823999999999685E-2</v>
+      </c>
       <c r="F30">
         <v>11.68</v>
       </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>5.2900000000000197E-2</v>
+      </c>
       <c r="I30">
         <v>17.14</v>
       </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>4.0000000000012508E-4</v>
+      </c>
       <c r="L30">
         <v>21.25</v>
       </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M30">
+        <f t="shared" si="4"/>
+        <v>3.3124000000000785E-2</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>28</v>
+      </c>
+      <c r="R30" s="13">
+        <v>8.61</v>
+      </c>
+      <c r="S30" s="13">
+        <v>12.75</v>
+      </c>
+      <c r="T30" s="13">
+        <v>17.12</v>
+      </c>
+      <c r="U30" s="13">
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>16</v>
       </c>
       <c r="C31">
         <v>8.6199999999999992</v>
       </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>4.0000000000026714E-6</v>
+      </c>
       <c r="F31">
         <v>11.64</v>
       </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>7.2899999999999771E-2</v>
+      </c>
       <c r="I31">
         <v>17.5</v>
       </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>0.11559999999999748</v>
+      </c>
       <c r="L31">
         <v>20.97</v>
       </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M31">
+        <f t="shared" si="4"/>
+        <v>9.6039999999998002E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>17</v>
       </c>
       <c r="C32">
         <v>8.61</v>
       </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>1.4400000000001093E-4</v>
+      </c>
       <c r="F32">
         <v>12.75</v>
       </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>0.70559999999999978</v>
+      </c>
       <c r="I32">
         <v>17.12</v>
       </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>1.600000000000216E-3</v>
+      </c>
       <c r="L32">
         <v>20.99</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="4"/>
+        <v>6.0839999999999072E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <f>AVERAGE(C28:C32)</f>
+        <v>8.6219999999999999</v>
+      </c>
+      <c r="D33">
+        <f>SQRT((1/3)*SUM(D28:D32))</f>
+        <v>0.17347430165108985</v>
+      </c>
+      <c r="F33">
+        <f>AVERAGE(F28:F32)</f>
+        <v>11.91</v>
+      </c>
+      <c r="G33">
+        <f>SQRT((1/3)*SUM(G28:G32))</f>
+        <v>0.54662601474865791</v>
+      </c>
+      <c r="I33">
+        <f>AVERAGE(I28:I32)</f>
+        <v>17.160000000000004</v>
+      </c>
+      <c r="J33">
+        <f>SQRT((1/3)*SUM(J28:J32))</f>
+        <v>0.22876479915697923</v>
+      </c>
+      <c r="L33">
+        <f>AVERAGE(L28:L32)</f>
+        <v>21.067999999999998</v>
+      </c>
+      <c r="M33">
+        <f>SQRT((1/3)*SUM(M28:M32))</f>
+        <v>0.14930952191114125</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35">
+        <v>1.022</v>
+      </c>
+      <c r="I35">
+        <v>1.0469999999999999</v>
+      </c>
+      <c r="L35">
+        <v>1.073</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36">
+        <f>0.941*F35*F33/($C$33*0.998)</f>
+        <v>1.3311093097817066</v>
+      </c>
+      <c r="I36">
+        <f>0.941*I35*I33/($C$33*0.998)</f>
+        <v>1.9647849770522257</v>
+      </c>
+      <c r="L36">
+        <f>0.941*L35*L33/($C$33*0.998)</f>
+        <v>2.4721458835090728</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38">
+        <f>F36*SQRT((G33/F33)^2+($D$33/$C$33)^2+(0.047/0.941)^2)</f>
+        <v>9.4179918954142572E-2</v>
+      </c>
+      <c r="I38">
+        <f>I36*SQRT((J33/I33)^2+($D$33/$C$33)^2+(0.047/0.941)^2)</f>
+        <v>0.10899201229131515</v>
+      </c>
+      <c r="L38">
+        <f>L36*SQRT((M33/L33)^2+($D$33/$C$33)^2+(0.047/0.941)^2)</f>
+        <v>0.13426570290455475</v>
       </c>
     </row>
   </sheetData>
